--- a/output/cideal.xlsx
+++ b/output/cideal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -783,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ108"/>
+  <dimension ref="A1:AM108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -792,7 +801,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -901,10 +910,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1003,15 +1021,24 @@
         <v>0.06087732807667185</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>175500</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1110,15 +1137,24 @@
         <v>0.06087732807667185</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>465000</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1217,15 +1253,24 @@
         <v>0.06087732807667185</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>680000</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1324,15 +1369,24 @@
         <v>0.06087732807667185</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>190500</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1431,15 +1485,24 @@
         <v>0.06087732807667185</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>51000</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1538,15 +1601,24 @@
         <v>0.06087732807667185</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>205200</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1645,15 +1717,24 @@
         <v>0.06087732807667185</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>312600</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1752,15 +1833,24 @@
         <v>0.06087732807667185</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>380600</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1859,15 +1949,24 @@
         <v>0.06087732807667185</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>14760</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1966,15 +2065,24 @@
         <v>0.06087732807667185</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>472600</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2073,15 +2181,24 @@
         <v>0.06087732807667185</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>769300</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2180,15 +2297,24 @@
         <v>0.06087732807667185</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>565600</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2287,15 +2413,24 @@
         <v>0.06087732807667185</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>65000</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2394,15 +2529,24 @@
         <v>0.06087732807667185</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>72300</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2501,15 +2645,24 @@
         <v>0.04189479175530832</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>35500</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2608,15 +2761,24 @@
         <v>0.04189479175530832</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>235000</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2715,15 +2877,24 @@
         <v>0.04189479175530832</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>495000</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2822,15 +2993,24 @@
         <v>0.04189479175530832</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>195000</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2929,15 +3109,24 @@
         <v>0.04189479175530832</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>52000</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3036,15 +3225,24 @@
         <v>0.04189479175530832</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>214500</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3143,15 +3341,24 @@
         <v>0.04189479175530832</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>215000</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3250,15 +3457,24 @@
         <v>0.04189479175530832</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>395000</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3357,15 +3573,24 @@
         <v>0.04189479175530832</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>212000</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3464,15 +3689,24 @@
         <v>0.04189479175530832</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>296000</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3571,15 +3805,24 @@
         <v>0.04189479175530832</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>278000</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3678,15 +3921,24 @@
         <v>0.04189479175530832</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>236000</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3785,15 +4037,24 @@
         <v>0.04189479175530832</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>630000</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3892,15 +4153,24 @@
         <v>0.04189479175530832</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>648500</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3999,15 +4269,24 @@
         <v>0.04189479175530832</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>528000</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4106,15 +4385,24 @@
         <v>0.04189479175530832</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>65000</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4213,15 +4501,24 @@
         <v>0.04098714688230424</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>25700</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4320,15 +4617,24 @@
         <v>0.04098714688230424</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>305000</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4427,15 +4733,24 @@
         <v>0.04098714688230424</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>530000</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4534,15 +4849,24 @@
         <v>0.04098714688230424</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>260000</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4641,15 +4965,24 @@
         <v>0.04098714688230424</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>115200</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -4748,15 +5081,24 @@
         <v>0.04098714688230424</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>210000</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -4855,15 +5197,24 @@
         <v>0.04098714688230424</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>50300</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4962,15 +5313,24 @@
         <v>0.04098714688230424</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>248000</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5069,15 +5429,24 @@
         <v>0.04098714688230424</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>390000</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5176,15 +5545,24 @@
         <v>0.04098714688230424</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>240000</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5283,15 +5661,24 @@
         <v>0.04098714688230424</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>280000</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5390,15 +5777,24 @@
         <v>0.04098714688230424</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>255000</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5497,15 +5893,24 @@
         <v>0.04098714688230424</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>310000</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5604,15 +6009,24 @@
         <v>0.04098714688230424</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>328000</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5711,15 +6125,24 @@
         <v>0.04098714688230424</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>1</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>353000</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5818,15 +6241,24 @@
         <v>0.04098714688230424</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>1</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>362000</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5925,15 +6357,24 @@
         <v>0.04098714688230424</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>1</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>548000</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6032,15 +6473,24 @@
         <v>0.04098714688230424</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>198500</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6139,15 +6589,24 @@
         <v>0.1239243331700712</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>1</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>600000</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6246,15 +6705,24 @@
         <v>0.1239243331700712</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>375000</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6353,15 +6821,24 @@
         <v>0.1239243331700712</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>310000</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6460,15 +6937,24 @@
         <v>0.1239243331700712</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>1</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>425000</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6567,15 +7053,24 @@
         <v>0.1239243331700712</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>1</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>40000</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6674,15 +7169,24 @@
         <v>0.1239243331700712</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>1</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>140000</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6781,15 +7285,24 @@
         <v>0.1239243331700712</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>175000</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6888,15 +7401,24 @@
         <v>0.1239243331700712</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>1</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>160000</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -6995,15 +7517,24 @@
         <v>0.1239243331700712</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>85000</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -7102,15 +7633,24 @@
         <v>0.1239243331700712</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>60000</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -7209,15 +7749,24 @@
         <v>0.1239243331700712</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
         <v>57500</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7316,15 +7865,24 @@
         <v>0.1239243331700712</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>175000</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7423,15 +7981,24 @@
         <v>0.1010298397503797</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>1</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
         <v>600000</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7530,15 +8097,24 @@
         <v>0.1010298397503797</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
         <v>375000</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7637,15 +8213,24 @@
         <v>0.1010298397503797</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>310000</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -7744,15 +8329,24 @@
         <v>0.1010298397503797</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>1</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
         <v>425000</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -7851,15 +8445,24 @@
         <v>0.1010298397503797</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>1</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>40000</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -7958,15 +8561,24 @@
         <v>0.1010298397503797</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>1</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
         <v>140000</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8065,15 +8677,24 @@
         <v>0.1010298397503797</v>
       </c>
       <c r="AI68">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>175000</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8172,15 +8793,24 @@
         <v>0.1010298397503797</v>
       </c>
       <c r="AI69">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>1</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
         <v>160000</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -8279,15 +8909,24 @@
         <v>0.1010298397503797</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
         <v>85000</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -8386,15 +9025,24 @@
         <v>0.1010298397503797</v>
       </c>
       <c r="AI71">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
         <v>60000</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -8493,15 +9141,24 @@
         <v>0.1010298397503797</v>
       </c>
       <c r="AI72">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
         <v>57500</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:39">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -8600,15 +9257,24 @@
         <v>0.1010298397503797</v>
       </c>
       <c r="AI73">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
         <v>175000</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -8707,15 +9373,24 @@
         <v>0.006686470392212758</v>
       </c>
       <c r="AI74">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>1</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
         <v>10650</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:39">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -8814,15 +9489,24 @@
         <v>0.006686470392212758</v>
       </c>
       <c r="AI75">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>1</v>
+      </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
         <v>21000</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:39">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -8921,15 +9605,24 @@
         <v>0.006686470392212758</v>
       </c>
       <c r="AI76">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76">
         <v>24231.5</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:39">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -9028,15 +9721,24 @@
         <v>0.006686470392212758</v>
       </c>
       <c r="AI77">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>1</v>
+      </c>
+      <c r="AL77">
+        <v>1</v>
+      </c>
+      <c r="AM77">
         <v>48831</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:39">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -9135,15 +9837,24 @@
         <v>0.006686470392212758</v>
       </c>
       <c r="AI78">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>1</v>
+      </c>
+      <c r="AM78">
         <v>95000</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:39">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -9242,15 +9953,24 @@
         <v>0.006686470392212758</v>
       </c>
       <c r="AI79">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>0</v>
+      </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
         <v>22500</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:39">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -9349,15 +10069,24 @@
         <v>0.006686470392212758</v>
       </c>
       <c r="AI80">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>1</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
         <v>132248</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:39">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -9456,15 +10185,24 @@
         <v>0.006686470392212758</v>
       </c>
       <c r="AI81">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
         <v>35755</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:39">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -9563,15 +10301,24 @@
         <v>0.006686470392212758</v>
       </c>
       <c r="AI82">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>1</v>
+      </c>
+      <c r="AL82">
+        <v>1</v>
+      </c>
+      <c r="AM82">
         <v>172436</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:39">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -9670,15 +10417,24 @@
         <v>0.006686470392212758</v>
       </c>
       <c r="AI83">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>1</v>
+      </c>
+      <c r="AM83">
         <v>222439.5</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:39">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -9777,15 +10533,24 @@
         <v>0.006686470392212758</v>
       </c>
       <c r="AI84">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
+      <c r="AL84">
+        <v>1</v>
+      </c>
+      <c r="AM84">
         <v>32600</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:39">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -9884,15 +10649,24 @@
         <v>0.006686470392212758</v>
       </c>
       <c r="AI85">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
+      <c r="AL85">
+        <v>1</v>
+      </c>
+      <c r="AM85">
         <v>83723</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:39">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -9991,15 +10765,24 @@
         <v>0.006686470392212758</v>
       </c>
       <c r="AI86">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+      <c r="AL86">
+        <v>1</v>
+      </c>
+      <c r="AM86">
         <v>294229</v>
       </c>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:39">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10098,15 +10881,24 @@
         <v>0.403453418224388</v>
       </c>
       <c r="AI87">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>1</v>
+      </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
+      <c r="AM87">
         <v>10650</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:39">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10205,15 +10997,24 @@
         <v>0.403453418224388</v>
       </c>
       <c r="AI88">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>1</v>
+      </c>
+      <c r="AL88">
+        <v>1</v>
+      </c>
+      <c r="AM88">
         <v>21000</v>
       </c>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:39">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -10312,15 +11113,24 @@
         <v>0.403453418224388</v>
       </c>
       <c r="AI89">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>0</v>
+      </c>
+      <c r="AL89">
+        <v>1</v>
+      </c>
+      <c r="AM89">
         <v>24231.5</v>
       </c>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:39">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -10419,15 +11229,24 @@
         <v>0.403453418224388</v>
       </c>
       <c r="AI90">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ90">
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <v>1</v>
+      </c>
+      <c r="AL90">
+        <v>1</v>
+      </c>
+      <c r="AM90">
         <v>48831</v>
       </c>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:39">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -10526,15 +11345,24 @@
         <v>0.403453418224388</v>
       </c>
       <c r="AI91">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ91">
+        <v>0</v>
+      </c>
+      <c r="AK91">
+        <v>0</v>
+      </c>
+      <c r="AL91">
+        <v>1</v>
+      </c>
+      <c r="AM91">
         <v>95000</v>
       </c>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:39">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -10633,15 +11461,24 @@
         <v>0.403453418224388</v>
       </c>
       <c r="AI92">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ92">
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <v>0</v>
+      </c>
+      <c r="AL92">
+        <v>1</v>
+      </c>
+      <c r="AM92">
         <v>22500</v>
       </c>
     </row>
-    <row r="93" spans="1:36">
+    <row r="93" spans="1:39">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -10740,15 +11577,24 @@
         <v>0.403453418224388</v>
       </c>
       <c r="AI93">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ93">
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <v>1</v>
+      </c>
+      <c r="AL93">
+        <v>1</v>
+      </c>
+      <c r="AM93">
         <v>132248</v>
       </c>
     </row>
-    <row r="94" spans="1:36">
+    <row r="94" spans="1:39">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -10847,15 +11693,24 @@
         <v>0.403453418224388</v>
       </c>
       <c r="AI94">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ94">
+        <v>0</v>
+      </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
+      <c r="AL94">
+        <v>1</v>
+      </c>
+      <c r="AM94">
         <v>35755</v>
       </c>
     </row>
-    <row r="95" spans="1:36">
+    <row r="95" spans="1:39">
       <c r="A95" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -10954,15 +11809,24 @@
         <v>0.403453418224388</v>
       </c>
       <c r="AI95">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
+        <v>1</v>
+      </c>
+      <c r="AL95">
+        <v>1</v>
+      </c>
+      <c r="AM95">
         <v>172436</v>
       </c>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:39">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -11061,15 +11925,24 @@
         <v>0.403453418224388</v>
       </c>
       <c r="AI96">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ96">
+        <v>0</v>
+      </c>
+      <c r="AK96">
+        <v>0</v>
+      </c>
+      <c r="AL96">
+        <v>1</v>
+      </c>
+      <c r="AM96">
         <v>222439.5</v>
       </c>
     </row>
-    <row r="97" spans="1:36">
+    <row r="97" spans="1:39">
       <c r="A97" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -11168,15 +12041,24 @@
         <v>0.403453418224388</v>
       </c>
       <c r="AI97">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ97">
+        <v>0</v>
+      </c>
+      <c r="AK97">
+        <v>0</v>
+      </c>
+      <c r="AL97">
+        <v>1</v>
+      </c>
+      <c r="AM97">
         <v>32600</v>
       </c>
     </row>
-    <row r="98" spans="1:36">
+    <row r="98" spans="1:39">
       <c r="A98" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -11275,15 +12157,24 @@
         <v>0.403453418224388</v>
       </c>
       <c r="AI98">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ98">
+        <v>0</v>
+      </c>
+      <c r="AK98">
+        <v>0</v>
+      </c>
+      <c r="AL98">
+        <v>1</v>
+      </c>
+      <c r="AM98">
         <v>83723</v>
       </c>
     </row>
-    <row r="99" spans="1:36">
+    <row r="99" spans="1:39">
       <c r="A99" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -11382,15 +12273,24 @@
         <v>0.403453418224388</v>
       </c>
       <c r="AI99">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ99">
+        <v>0</v>
+      </c>
+      <c r="AK99">
+        <v>0</v>
+      </c>
+      <c r="AL99">
+        <v>1</v>
+      </c>
+      <c r="AM99">
         <v>294229</v>
       </c>
     </row>
-    <row r="100" spans="1:36">
+    <row r="100" spans="1:39">
       <c r="A100" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -11489,15 +12389,24 @@
         <v>0.5202033002948121</v>
       </c>
       <c r="AI100">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ100">
+        <v>0</v>
+      </c>
+      <c r="AK100">
+        <v>1</v>
+      </c>
+      <c r="AL100">
+        <v>1</v>
+      </c>
+      <c r="AM100">
         <v>60000</v>
       </c>
     </row>
-    <row r="101" spans="1:36">
+    <row r="101" spans="1:39">
       <c r="A101" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -11596,15 +12505,24 @@
         <v>0.5202033002948121</v>
       </c>
       <c r="AI101">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ101">
+        <v>0</v>
+      </c>
+      <c r="AK101">
+        <v>1</v>
+      </c>
+      <c r="AL101">
+        <v>1</v>
+      </c>
+      <c r="AM101">
         <v>113000</v>
       </c>
     </row>
-    <row r="102" spans="1:36">
+    <row r="102" spans="1:39">
       <c r="A102" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -11703,15 +12621,24 @@
         <v>0.5202033002948121</v>
       </c>
       <c r="AI102">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ102">
+        <v>0</v>
+      </c>
+      <c r="AK102">
+        <v>1</v>
+      </c>
+      <c r="AL102">
+        <v>1</v>
+      </c>
+      <c r="AM102">
         <v>190000</v>
       </c>
     </row>
-    <row r="103" spans="1:36">
+    <row r="103" spans="1:39">
       <c r="A103" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -11810,15 +12737,24 @@
         <v>0.5202033002948121</v>
       </c>
       <c r="AI103">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ103">
+        <v>0</v>
+      </c>
+      <c r="AK103">
+        <v>0</v>
+      </c>
+      <c r="AL103">
+        <v>1</v>
+      </c>
+      <c r="AM103">
         <v>81000</v>
       </c>
     </row>
-    <row r="104" spans="1:36">
+    <row r="104" spans="1:39">
       <c r="A104" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -11917,15 +12853,24 @@
         <v>0.5202033002948121</v>
       </c>
       <c r="AI104">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ104">
+        <v>0</v>
+      </c>
+      <c r="AK104">
+        <v>1</v>
+      </c>
+      <c r="AL104">
+        <v>1</v>
+      </c>
+      <c r="AM104">
         <v>215000</v>
       </c>
     </row>
-    <row r="105" spans="1:36">
+    <row r="105" spans="1:39">
       <c r="A105" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -12024,15 +12969,24 @@
         <v>0.5202033002948121</v>
       </c>
       <c r="AI105">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ105">
+        <v>0</v>
+      </c>
+      <c r="AK105">
+        <v>1</v>
+      </c>
+      <c r="AL105">
+        <v>1</v>
+      </c>
+      <c r="AM105">
         <v>121000</v>
       </c>
     </row>
-    <row r="106" spans="1:36">
+    <row r="106" spans="1:39">
       <c r="A106" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -12131,15 +13085,24 @@
         <v>0.5202033002948121</v>
       </c>
       <c r="AI106">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ106">
+        <v>0</v>
+      </c>
+      <c r="AK106">
+        <v>0</v>
+      </c>
+      <c r="AL106">
+        <v>1</v>
+      </c>
+      <c r="AM106">
         <v>700000</v>
       </c>
     </row>
-    <row r="107" spans="1:36">
+    <row r="107" spans="1:39">
       <c r="A107" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -12238,15 +13201,24 @@
         <v>0.5202033002948121</v>
       </c>
       <c r="AI107">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ107">
+        <v>0</v>
+      </c>
+      <c r="AK107">
+        <v>0</v>
+      </c>
+      <c r="AL107">
+        <v>1</v>
+      </c>
+      <c r="AM107">
         <v>192000</v>
       </c>
     </row>
-    <row r="108" spans="1:36">
+    <row r="108" spans="1:39">
       <c r="A108" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -12345,9 +13317,18 @@
         <v>0.5202033002948121</v>
       </c>
       <c r="AI108">
-        <v>1</v>
+        <v>1983</v>
       </c>
       <c r="AJ108">
+        <v>0</v>
+      </c>
+      <c r="AK108">
+        <v>0</v>
+      </c>
+      <c r="AL108">
+        <v>1</v>
+      </c>
+      <c r="AM108">
         <v>320000</v>
       </c>
     </row>

--- a/output/cideal.xlsx
+++ b/output/cideal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -792,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM108"/>
+  <dimension ref="A1:AO108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -801,7 +807,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -919,10 +925,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -979,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>260495</v>
+        <v>579997</v>
       </c>
       <c r="U2">
         <v>17</v>
@@ -1015,30 +1027,36 @@
         <v>507990</v>
       </c>
       <c r="AG2">
-        <v>4279015</v>
+        <v>4598517</v>
       </c>
       <c r="AH2">
-        <v>0.06087732807667185</v>
+        <v>0.1261269665850969</v>
       </c>
       <c r="AI2">
+        <v>0.6832968106891852</v>
+      </c>
+      <c r="AJ2">
         <v>1983</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>175500</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1095,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>260495</v>
+        <v>579997</v>
       </c>
       <c r="U3">
         <v>17</v>
@@ -1131,30 +1149,36 @@
         <v>415640</v>
       </c>
       <c r="AG3">
-        <v>4279015</v>
+        <v>4598517</v>
       </c>
       <c r="AH3">
-        <v>0.06087732807667185</v>
+        <v>0.1261269665850969</v>
       </c>
       <c r="AI3">
+        <v>0.6832968106891852</v>
+      </c>
+      <c r="AJ3">
         <v>1983</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>465000</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1211,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>260495</v>
+        <v>579997</v>
       </c>
       <c r="U4">
         <v>17</v>
@@ -1247,30 +1271,36 @@
         <v>2611353</v>
       </c>
       <c r="AG4">
-        <v>4279015</v>
+        <v>4598517</v>
       </c>
       <c r="AH4">
-        <v>0.06087732807667185</v>
+        <v>0.1261269665850969</v>
       </c>
       <c r="AI4">
+        <v>0.6832968106891852</v>
+      </c>
+      <c r="AJ4">
         <v>1983</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>680000</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1327,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>260495</v>
+        <v>579997</v>
       </c>
       <c r="U5">
         <v>17</v>
@@ -1363,30 +1393,36 @@
         <v>224296</v>
       </c>
       <c r="AG5">
-        <v>4279015</v>
+        <v>4598517</v>
       </c>
       <c r="AH5">
-        <v>0.06087732807667185</v>
+        <v>0.1261269665850969</v>
       </c>
       <c r="AI5">
+        <v>0.6832968106891852</v>
+      </c>
+      <c r="AJ5">
         <v>1983</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>190500</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1443,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>260495</v>
+        <v>579997</v>
       </c>
       <c r="U6">
         <v>17</v>
@@ -1479,30 +1515,36 @@
         <v>4093293</v>
       </c>
       <c r="AG6">
-        <v>4279015</v>
+        <v>4598517</v>
       </c>
       <c r="AH6">
-        <v>0.06087732807667185</v>
+        <v>0.1261269665850969</v>
       </c>
       <c r="AI6">
+        <v>0.6832968106891852</v>
+      </c>
+      <c r="AJ6">
         <v>1983</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>51000</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1559,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>260495</v>
+        <v>579997</v>
       </c>
       <c r="U7">
         <v>17</v>
@@ -1595,30 +1637,36 @@
         <v>2565774</v>
       </c>
       <c r="AG7">
-        <v>4279015</v>
+        <v>4598517</v>
       </c>
       <c r="AH7">
-        <v>0.06087732807667185</v>
+        <v>0.1261269665850969</v>
       </c>
       <c r="AI7">
+        <v>0.6832968106891852</v>
+      </c>
+      <c r="AJ7">
         <v>1983</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
         <v>1</v>
       </c>
       <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>205200</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1675,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>260495</v>
+        <v>579997</v>
       </c>
       <c r="U8">
         <v>17</v>
@@ -1711,30 +1759,36 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>4279015</v>
+        <v>4598517</v>
       </c>
       <c r="AH8">
-        <v>0.06087732807667185</v>
+        <v>0.1261269665850969</v>
       </c>
       <c r="AI8">
+        <v>0.6832968106891852</v>
+      </c>
+      <c r="AJ8">
         <v>1983</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>312600</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1791,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>260495</v>
+        <v>579997</v>
       </c>
       <c r="U9">
         <v>17</v>
@@ -1827,30 +1881,36 @@
         <v>1570343</v>
       </c>
       <c r="AG9">
-        <v>4279015</v>
+        <v>4598517</v>
       </c>
       <c r="AH9">
-        <v>0.06087732807667185</v>
+        <v>0.1261269665850969</v>
       </c>
       <c r="AI9">
+        <v>0.6832968106891852</v>
+      </c>
+      <c r="AJ9">
         <v>1983</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>380600</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1907,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>260495</v>
+        <v>579997</v>
       </c>
       <c r="U10">
         <v>17</v>
@@ -1943,30 +2003,36 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>4279015</v>
+        <v>4598517</v>
       </c>
       <c r="AH10">
-        <v>0.06087732807667185</v>
+        <v>0.1261269665850969</v>
       </c>
       <c r="AI10">
+        <v>0.6832968106891852</v>
+      </c>
+      <c r="AJ10">
         <v>1983</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>1</v>
       </c>
       <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>14760</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2023,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>260495</v>
+        <v>579997</v>
       </c>
       <c r="U11">
         <v>17</v>
@@ -2059,30 +2125,36 @@
         <v>2282830</v>
       </c>
       <c r="AG11">
-        <v>4279015</v>
+        <v>4598517</v>
       </c>
       <c r="AH11">
-        <v>0.06087732807667185</v>
+        <v>0.1261269665850969</v>
       </c>
       <c r="AI11">
+        <v>0.6832968106891852</v>
+      </c>
+      <c r="AJ11">
         <v>1983</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
       <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>472600</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2139,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>260495</v>
+        <v>579997</v>
       </c>
       <c r="U12">
         <v>17</v>
@@ -2175,30 +2247,36 @@
         <v>3433758</v>
       </c>
       <c r="AG12">
-        <v>4279015</v>
+        <v>4598517</v>
       </c>
       <c r="AH12">
-        <v>0.06087732807667185</v>
+        <v>0.1261269665850969</v>
       </c>
       <c r="AI12">
+        <v>0.6832968106891852</v>
+      </c>
+      <c r="AJ12">
         <v>1983</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
         <v>1</v>
       </c>
       <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>769300</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2255,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>260495</v>
+        <v>579997</v>
       </c>
       <c r="U13">
         <v>17</v>
@@ -2291,30 +2369,36 @@
         <v>3740606</v>
       </c>
       <c r="AG13">
-        <v>4279015</v>
+        <v>4598517</v>
       </c>
       <c r="AH13">
-        <v>0.06087732807667185</v>
+        <v>0.1261269665850969</v>
       </c>
       <c r="AI13">
+        <v>0.6832968106891852</v>
+      </c>
+      <c r="AJ13">
         <v>1983</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13">
         <v>1</v>
       </c>
       <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>565600</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2371,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>260495</v>
+        <v>579997</v>
       </c>
       <c r="U14">
         <v>17</v>
@@ -2407,30 +2491,36 @@
         <v>5201043</v>
       </c>
       <c r="AG14">
-        <v>4279015</v>
+        <v>4598517</v>
       </c>
       <c r="AH14">
-        <v>0.06087732807667185</v>
+        <v>0.1261269665850969</v>
       </c>
       <c r="AI14">
+        <v>0.6832968106891852</v>
+      </c>
+      <c r="AJ14">
         <v>1983</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14">
         <v>1</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>65000</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2487,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>260495</v>
+        <v>579997</v>
       </c>
       <c r="U15">
         <v>17</v>
@@ -2523,30 +2613,36 @@
         <v>2656206</v>
       </c>
       <c r="AG15">
-        <v>4279015</v>
+        <v>4598517</v>
       </c>
       <c r="AH15">
-        <v>0.06087732807667185</v>
+        <v>0.1261269665850969</v>
       </c>
       <c r="AI15">
+        <v>0.6832968106891852</v>
+      </c>
+      <c r="AJ15">
         <v>1983</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>72300</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2603,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>226469</v>
+        <v>546975</v>
       </c>
       <c r="U16">
         <v>18</v>
@@ -2639,30 +2735,36 @@
         <v>975159</v>
       </c>
       <c r="AG16">
-        <v>5405660</v>
+        <v>5726166</v>
       </c>
       <c r="AH16">
-        <v>0.04189479175530832</v>
+        <v>0.09552202992368716</v>
       </c>
       <c r="AI16">
+        <v>0.6999075821413491</v>
+      </c>
+      <c r="AJ16">
         <v>1983</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>35500</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2719,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>226469</v>
+        <v>546975</v>
       </c>
       <c r="U17">
         <v>18</v>
@@ -2755,30 +2857,36 @@
         <v>1501418</v>
       </c>
       <c r="AG17">
-        <v>5405660</v>
+        <v>5726166</v>
       </c>
       <c r="AH17">
-        <v>0.04189479175530832</v>
+        <v>0.09552202992368716</v>
       </c>
       <c r="AI17">
+        <v>0.6999075821413491</v>
+      </c>
+      <c r="AJ17">
         <v>1983</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>235000</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2835,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>226469</v>
+        <v>546975</v>
       </c>
       <c r="U18">
         <v>18</v>
@@ -2871,30 +2979,36 @@
         <v>15684392</v>
       </c>
       <c r="AG18">
-        <v>5405660</v>
+        <v>5726166</v>
       </c>
       <c r="AH18">
-        <v>0.04189479175530832</v>
+        <v>0.09552202992368716</v>
       </c>
       <c r="AI18">
+        <v>0.6999075821413491</v>
+      </c>
+      <c r="AJ18">
         <v>1983</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>495000</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2951,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>226469</v>
+        <v>546975</v>
       </c>
       <c r="U19">
         <v>18</v>
@@ -2987,30 +3101,36 @@
         <v>263966</v>
       </c>
       <c r="AG19">
-        <v>5405660</v>
+        <v>5726166</v>
       </c>
       <c r="AH19">
-        <v>0.04189479175530832</v>
+        <v>0.09552202992368716</v>
       </c>
       <c r="AI19">
+        <v>0.6999075821413491</v>
+      </c>
+      <c r="AJ19">
         <v>1983</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
         <v>0</v>
       </c>
       <c r="AL19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>195000</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3067,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>226469</v>
+        <v>546975</v>
       </c>
       <c r="U20">
         <v>18</v>
@@ -3103,30 +3223,36 @@
         <v>5979579.666666666</v>
       </c>
       <c r="AG20">
-        <v>5405660</v>
+        <v>5726166</v>
       </c>
       <c r="AH20">
-        <v>0.04189479175530832</v>
+        <v>0.09552202992368716</v>
       </c>
       <c r="AI20">
+        <v>0.6999075821413491</v>
+      </c>
+      <c r="AJ20">
         <v>1983</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>52000</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3183,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>226469</v>
+        <v>546975</v>
       </c>
       <c r="U21">
         <v>18</v>
@@ -3219,30 +3345,36 @@
         <v>7781510</v>
       </c>
       <c r="AG21">
-        <v>5405660</v>
+        <v>5726166</v>
       </c>
       <c r="AH21">
-        <v>0.04189479175530832</v>
+        <v>0.09552202992368716</v>
       </c>
       <c r="AI21">
+        <v>0.6999075821413491</v>
+      </c>
+      <c r="AJ21">
         <v>1983</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>214500</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3299,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>226469</v>
+        <v>546975</v>
       </c>
       <c r="U22">
         <v>18</v>
@@ -3335,30 +3467,36 @@
         <v>3518583</v>
       </c>
       <c r="AG22">
-        <v>5405660</v>
+        <v>5726166</v>
       </c>
       <c r="AH22">
-        <v>0.04189479175530832</v>
+        <v>0.09552202992368716</v>
       </c>
       <c r="AI22">
+        <v>0.6999075821413491</v>
+      </c>
+      <c r="AJ22">
         <v>1983</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>215000</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3415,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>226469</v>
+        <v>546975</v>
       </c>
       <c r="U23">
         <v>18</v>
@@ -3451,30 +3589,36 @@
         <v>11420820.66666667</v>
       </c>
       <c r="AG23">
-        <v>5405660</v>
+        <v>5726166</v>
       </c>
       <c r="AH23">
-        <v>0.04189479175530832</v>
+        <v>0.09552202992368716</v>
       </c>
       <c r="AI23">
+        <v>0.6999075821413491</v>
+      </c>
+      <c r="AJ23">
         <v>1983</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>395000</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3531,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>226469</v>
+        <v>546975</v>
       </c>
       <c r="U24">
         <v>18</v>
@@ -3567,30 +3711,36 @@
         <v>14532818.83333333</v>
       </c>
       <c r="AG24">
-        <v>5405660</v>
+        <v>5726166</v>
       </c>
       <c r="AH24">
-        <v>0.04189479175530832</v>
+        <v>0.09552202992368716</v>
       </c>
       <c r="AI24">
+        <v>0.6999075821413491</v>
+      </c>
+      <c r="AJ24">
         <v>1983</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24">
         <v>1</v>
       </c>
       <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>212000</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3647,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>226469</v>
+        <v>546975</v>
       </c>
       <c r="U25">
         <v>18</v>
@@ -3683,30 +3833,36 @@
         <v>12175312</v>
       </c>
       <c r="AG25">
-        <v>5405660</v>
+        <v>5726166</v>
       </c>
       <c r="AH25">
-        <v>0.04189479175530832</v>
+        <v>0.09552202992368716</v>
       </c>
       <c r="AI25">
+        <v>0.6999075821413491</v>
+      </c>
+      <c r="AJ25">
         <v>1983</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>296000</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3763,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>226469</v>
+        <v>546975</v>
       </c>
       <c r="U26">
         <v>18</v>
@@ -3799,30 +3955,36 @@
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>5405660</v>
+        <v>5726166</v>
       </c>
       <c r="AH26">
-        <v>0.04189479175530832</v>
+        <v>0.09552202992368716</v>
       </c>
       <c r="AI26">
+        <v>0.6999075821413491</v>
+      </c>
+      <c r="AJ26">
         <v>1983</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26">
         <v>1</v>
       </c>
       <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>278000</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3879,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>226469</v>
+        <v>546975</v>
       </c>
       <c r="U27">
         <v>18</v>
@@ -3915,30 +4077,36 @@
         <v>13056447</v>
       </c>
       <c r="AG27">
-        <v>5405660</v>
+        <v>5726166</v>
       </c>
       <c r="AH27">
-        <v>0.04189479175530832</v>
+        <v>0.09552202992368716</v>
       </c>
       <c r="AI27">
+        <v>0.6999075821413491</v>
+      </c>
+      <c r="AJ27">
         <v>1983</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>236000</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3995,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>226469</v>
+        <v>546975</v>
       </c>
       <c r="U28">
         <v>18</v>
@@ -4031,30 +4199,36 @@
         <v>25548911</v>
       </c>
       <c r="AG28">
-        <v>5405660</v>
+        <v>5726166</v>
       </c>
       <c r="AH28">
-        <v>0.04189479175530832</v>
+        <v>0.09552202992368716</v>
       </c>
       <c r="AI28">
+        <v>0.6999075821413491</v>
+      </c>
+      <c r="AJ28">
         <v>1983</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28">
         <v>1</v>
       </c>
       <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>630000</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4111,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="T29">
-        <v>226469</v>
+        <v>546975</v>
       </c>
       <c r="U29">
         <v>18</v>
@@ -4147,30 +4321,36 @@
         <v>32846422</v>
       </c>
       <c r="AG29">
-        <v>5405660</v>
+        <v>5726166</v>
       </c>
       <c r="AH29">
-        <v>0.04189479175530832</v>
+        <v>0.09552202992368716</v>
       </c>
       <c r="AI29">
+        <v>0.6999075821413491</v>
+      </c>
+      <c r="AJ29">
         <v>1983</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29">
         <v>1</v>
       </c>
       <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>648500</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4227,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>226469</v>
+        <v>546975</v>
       </c>
       <c r="U30">
         <v>18</v>
@@ -4263,30 +4443,36 @@
         <v>10672204</v>
       </c>
       <c r="AG30">
-        <v>5405660</v>
+        <v>5726166</v>
       </c>
       <c r="AH30">
-        <v>0.04189479175530832</v>
+        <v>0.09552202992368716</v>
       </c>
       <c r="AI30">
+        <v>0.6999075821413491</v>
+      </c>
+      <c r="AJ30">
         <v>1983</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30">
         <v>1</v>
       </c>
       <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>528000</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4343,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>226469</v>
+        <v>546975</v>
       </c>
       <c r="U31">
         <v>18</v>
@@ -4379,30 +4565,36 @@
         <v>9934803.333333334</v>
       </c>
       <c r="AG31">
-        <v>5405660</v>
+        <v>5726166</v>
       </c>
       <c r="AH31">
-        <v>0.04189479175530832</v>
+        <v>0.09552202992368716</v>
       </c>
       <c r="AI31">
+        <v>0.6999075821413491</v>
+      </c>
+      <c r="AJ31">
         <v>1983</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>65000</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4459,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>262860</v>
+        <v>587090</v>
       </c>
       <c r="U32">
         <v>19</v>
@@ -4495,30 +4687,36 @@
         <v>461403</v>
       </c>
       <c r="AG32">
-        <v>6413230</v>
+        <v>6737460</v>
       </c>
       <c r="AH32">
-        <v>0.04098714688230424</v>
+        <v>0.08713817967008339</v>
       </c>
       <c r="AI32">
+        <v>0.7204225331207903</v>
+      </c>
+      <c r="AJ32">
         <v>1983</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
         <v>0</v>
       </c>
       <c r="AL32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>25700</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4575,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>262860</v>
+        <v>587090</v>
       </c>
       <c r="U33">
         <v>19</v>
@@ -4611,30 +4809,36 @@
         <v>882437</v>
       </c>
       <c r="AG33">
-        <v>6413230</v>
+        <v>6737460</v>
       </c>
       <c r="AH33">
-        <v>0.04098714688230424</v>
+        <v>0.08713817967008339</v>
       </c>
       <c r="AI33">
+        <v>0.7204225331207903</v>
+      </c>
+      <c r="AJ33">
         <v>1983</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
         <v>0</v>
       </c>
       <c r="AL33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>305000</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4691,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <v>262860</v>
+        <v>587090</v>
       </c>
       <c r="U34">
         <v>19</v>
@@ -4727,30 +4931,36 @@
         <v>1695725</v>
       </c>
       <c r="AG34">
-        <v>6413230</v>
+        <v>6737460</v>
       </c>
       <c r="AH34">
-        <v>0.04098714688230424</v>
+        <v>0.08713817967008339</v>
       </c>
       <c r="AI34">
+        <v>0.7204225331207903</v>
+      </c>
+      <c r="AJ34">
         <v>1983</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34">
         <v>1</v>
       </c>
       <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>530000</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4807,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>262860</v>
+        <v>587090</v>
       </c>
       <c r="U35">
         <v>19</v>
@@ -4843,30 +5053,36 @@
         <v>0</v>
       </c>
       <c r="AG35">
-        <v>6413230</v>
+        <v>6737460</v>
       </c>
       <c r="AH35">
-        <v>0.04098714688230424</v>
+        <v>0.08713817967008339</v>
       </c>
       <c r="AI35">
+        <v>0.7204225331207903</v>
+      </c>
+      <c r="AJ35">
         <v>1983</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
         <v>0</v>
       </c>
       <c r="AL35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>260000</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4923,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>262860</v>
+        <v>587090</v>
       </c>
       <c r="U36">
         <v>19</v>
@@ -4959,30 +5175,36 @@
         <v>1336045</v>
       </c>
       <c r="AG36">
-        <v>6413230</v>
+        <v>6737460</v>
       </c>
       <c r="AH36">
-        <v>0.04098714688230424</v>
+        <v>0.08713817967008339</v>
       </c>
       <c r="AI36">
+        <v>0.7204225331207903</v>
+      </c>
+      <c r="AJ36">
         <v>1983</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
         <v>0</v>
       </c>
       <c r="AL36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>115200</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5039,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="T37">
-        <v>262860</v>
+        <v>587090</v>
       </c>
       <c r="U37">
         <v>19</v>
@@ -5075,30 +5297,36 @@
         <v>905668</v>
       </c>
       <c r="AG37">
-        <v>6413230</v>
+        <v>6737460</v>
       </c>
       <c r="AH37">
-        <v>0.04098714688230424</v>
+        <v>0.08713817967008339</v>
       </c>
       <c r="AI37">
+        <v>0.7204225331207903</v>
+      </c>
+      <c r="AJ37">
         <v>1983</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
         <v>0</v>
       </c>
       <c r="AL37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>210000</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -5155,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <v>262860</v>
+        <v>587090</v>
       </c>
       <c r="U38">
         <v>19</v>
@@ -5191,30 +5419,36 @@
         <v>1964876</v>
       </c>
       <c r="AG38">
-        <v>6413230</v>
+        <v>6737460</v>
       </c>
       <c r="AH38">
-        <v>0.04098714688230424</v>
+        <v>0.08713817967008339</v>
       </c>
       <c r="AI38">
+        <v>0.7204225331207903</v>
+      </c>
+      <c r="AJ38">
         <v>1983</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
         <v>0</v>
       </c>
       <c r="AL38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>50300</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5271,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="T39">
-        <v>262860</v>
+        <v>587090</v>
       </c>
       <c r="U39">
         <v>19</v>
@@ -5307,30 +5541,36 @@
         <v>1494969</v>
       </c>
       <c r="AG39">
-        <v>6413230</v>
+        <v>6737460</v>
       </c>
       <c r="AH39">
-        <v>0.04098714688230424</v>
+        <v>0.08713817967008339</v>
       </c>
       <c r="AI39">
+        <v>0.7204225331207903</v>
+      </c>
+      <c r="AJ39">
         <v>1983</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
         <v>0</v>
       </c>
       <c r="AL39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>248000</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5387,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="T40">
-        <v>262860</v>
+        <v>587090</v>
       </c>
       <c r="U40">
         <v>19</v>
@@ -5423,30 +5663,36 @@
         <v>1441836</v>
       </c>
       <c r="AG40">
-        <v>6413230</v>
+        <v>6737460</v>
       </c>
       <c r="AH40">
-        <v>0.04098714688230424</v>
+        <v>0.08713817967008339</v>
       </c>
       <c r="AI40">
+        <v>0.7204225331207903</v>
+      </c>
+      <c r="AJ40">
         <v>1983</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>390000</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5503,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="T41">
-        <v>262860</v>
+        <v>587090</v>
       </c>
       <c r="U41">
         <v>19</v>
@@ -5539,30 +5785,36 @@
         <v>2140362</v>
       </c>
       <c r="AG41">
-        <v>6413230</v>
+        <v>6737460</v>
       </c>
       <c r="AH41">
-        <v>0.04098714688230424</v>
+        <v>0.08713817967008339</v>
       </c>
       <c r="AI41">
+        <v>0.7204225331207903</v>
+      </c>
+      <c r="AJ41">
         <v>1983</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41">
         <v>1</v>
       </c>
       <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>240000</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5619,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <v>262860</v>
+        <v>587090</v>
       </c>
       <c r="U42">
         <v>19</v>
@@ -5655,30 +5907,36 @@
         <v>3746015</v>
       </c>
       <c r="AG42">
-        <v>6413230</v>
+        <v>6737460</v>
       </c>
       <c r="AH42">
-        <v>0.04098714688230424</v>
+        <v>0.08713817967008339</v>
       </c>
       <c r="AI42">
+        <v>0.7204225331207903</v>
+      </c>
+      <c r="AJ42">
         <v>1983</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>280000</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5735,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>262860</v>
+        <v>587090</v>
       </c>
       <c r="U43">
         <v>19</v>
@@ -5771,30 +6029,36 @@
         <v>0</v>
       </c>
       <c r="AG43">
-        <v>6413230</v>
+        <v>6737460</v>
       </c>
       <c r="AH43">
-        <v>0.04098714688230424</v>
+        <v>0.08713817967008339</v>
       </c>
       <c r="AI43">
+        <v>0.7204225331207903</v>
+      </c>
+      <c r="AJ43">
         <v>1983</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43">
         <v>1</v>
       </c>
       <c r="AM43">
+        <v>1</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>255000</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5851,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>262860</v>
+        <v>587090</v>
       </c>
       <c r="U44">
         <v>19</v>
@@ -5887,30 +6151,36 @@
         <v>1979992</v>
       </c>
       <c r="AG44">
-        <v>6413230</v>
+        <v>6737460</v>
       </c>
       <c r="AH44">
-        <v>0.04098714688230424</v>
+        <v>0.08713817967008339</v>
       </c>
       <c r="AI44">
+        <v>0.7204225331207903</v>
+      </c>
+      <c r="AJ44">
         <v>1983</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
       <c r="AK44">
         <v>0</v>
       </c>
       <c r="AL44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44">
+        <v>1</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>310000</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5967,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>262860</v>
+        <v>587090</v>
       </c>
       <c r="U45">
         <v>19</v>
@@ -6003,30 +6273,36 @@
         <v>0</v>
       </c>
       <c r="AG45">
-        <v>6413230</v>
+        <v>6737460</v>
       </c>
       <c r="AH45">
-        <v>0.04098714688230424</v>
+        <v>0.08713817967008339</v>
       </c>
       <c r="AI45">
+        <v>0.7204225331207903</v>
+      </c>
+      <c r="AJ45">
         <v>1983</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45">
         <v>1</v>
       </c>
       <c r="AM45">
+        <v>1</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>328000</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6083,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="T46">
-        <v>262860</v>
+        <v>587090</v>
       </c>
       <c r="U46">
         <v>19</v>
@@ -6119,30 +6395,36 @@
         <v>1772730</v>
       </c>
       <c r="AG46">
-        <v>6413230</v>
+        <v>6737460</v>
       </c>
       <c r="AH46">
-        <v>0.04098714688230424</v>
+        <v>0.08713817967008339</v>
       </c>
       <c r="AI46">
+        <v>0.7204225331207903</v>
+      </c>
+      <c r="AJ46">
         <v>1983</v>
       </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
       <c r="AK46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46">
         <v>1</v>
       </c>
       <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>353000</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6199,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>262860</v>
+        <v>587090</v>
       </c>
       <c r="U47">
         <v>19</v>
@@ -6235,30 +6517,36 @@
         <v>2299220</v>
       </c>
       <c r="AG47">
-        <v>6413230</v>
+        <v>6737460</v>
       </c>
       <c r="AH47">
-        <v>0.04098714688230424</v>
+        <v>0.08713817967008339</v>
       </c>
       <c r="AI47">
+        <v>0.7204225331207903</v>
+      </c>
+      <c r="AJ47">
         <v>1983</v>
       </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
       <c r="AK47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47">
         <v>1</v>
       </c>
       <c r="AM47">
+        <v>1</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>362000</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6315,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>262860</v>
+        <v>587090</v>
       </c>
       <c r="U48">
         <v>19</v>
@@ -6351,30 +6639,36 @@
         <v>1859221</v>
       </c>
       <c r="AG48">
-        <v>6413230</v>
+        <v>6737460</v>
       </c>
       <c r="AH48">
-        <v>0.04098714688230424</v>
+        <v>0.08713817967008339</v>
       </c>
       <c r="AI48">
+        <v>0.7204225331207903</v>
+      </c>
+      <c r="AJ48">
         <v>1983</v>
       </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
       <c r="AK48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48">
         <v>1</v>
       </c>
       <c r="AM48">
+        <v>1</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>548000</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6431,7 +6725,7 @@
         <v>0</v>
       </c>
       <c r="T49">
-        <v>262860</v>
+        <v>587090</v>
       </c>
       <c r="U49">
         <v>19</v>
@@ -6467,30 +6761,36 @@
         <v>968802</v>
       </c>
       <c r="AG49">
-        <v>6413230</v>
+        <v>6737460</v>
       </c>
       <c r="AH49">
-        <v>0.04098714688230424</v>
+        <v>0.08713817967008339</v>
       </c>
       <c r="AI49">
+        <v>0.7204225331207903</v>
+      </c>
+      <c r="AJ49">
         <v>1983</v>
       </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
       <c r="AK49">
         <v>0</v>
       </c>
       <c r="AL49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>198500</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6589,24 +6889,30 @@
         <v>0.1239243331700712</v>
       </c>
       <c r="AI50">
+        <v>0.70843058355824</v>
+      </c>
+      <c r="AJ50">
         <v>1983</v>
       </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
       <c r="AK50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50">
         <v>1</v>
       </c>
       <c r="AM50">
+        <v>1</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>600000</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6705,24 +7011,30 @@
         <v>0.1239243331700712</v>
       </c>
       <c r="AI51">
+        <v>0.70843058355824</v>
+      </c>
+      <c r="AJ51">
         <v>1983</v>
       </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
       <c r="AK51">
         <v>0</v>
       </c>
       <c r="AL51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51">
+        <v>1</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>375000</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6821,24 +7133,30 @@
         <v>0.1239243331700712</v>
       </c>
       <c r="AI52">
+        <v>0.70843058355824</v>
+      </c>
+      <c r="AJ52">
         <v>1983</v>
       </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
       <c r="AK52">
         <v>0</v>
       </c>
       <c r="AL52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52">
+        <v>1</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>310000</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6937,24 +7255,30 @@
         <v>0.1239243331700712</v>
       </c>
       <c r="AI53">
+        <v>0.70843058355824</v>
+      </c>
+      <c r="AJ53">
         <v>1983</v>
       </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
       <c r="AK53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53">
         <v>1</v>
       </c>
       <c r="AM53">
+        <v>1</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
         <v>425000</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7053,24 +7377,30 @@
         <v>0.1239243331700712</v>
       </c>
       <c r="AI54">
+        <v>0.70843058355824</v>
+      </c>
+      <c r="AJ54">
         <v>1983</v>
       </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
       <c r="AK54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54">
         <v>1</v>
       </c>
       <c r="AM54">
+        <v>1</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>40000</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7169,24 +7499,30 @@
         <v>0.1239243331700712</v>
       </c>
       <c r="AI55">
+        <v>0.70843058355824</v>
+      </c>
+      <c r="AJ55">
         <v>1983</v>
       </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
       <c r="AK55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55">
         <v>1</v>
       </c>
       <c r="AM55">
+        <v>1</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
         <v>140000</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7285,24 +7621,30 @@
         <v>0.1239243331700712</v>
       </c>
       <c r="AI56">
+        <v>0.70843058355824</v>
+      </c>
+      <c r="AJ56">
         <v>1983</v>
       </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
       <c r="AK56">
         <v>0</v>
       </c>
       <c r="AL56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56">
+        <v>1</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
         <v>175000</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7401,24 +7743,30 @@
         <v>0.1239243331700712</v>
       </c>
       <c r="AI57">
+        <v>0.70843058355824</v>
+      </c>
+      <c r="AJ57">
         <v>1983</v>
       </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
       <c r="AK57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57">
         <v>1</v>
       </c>
       <c r="AM57">
+        <v>1</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
         <v>160000</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -7517,24 +7865,30 @@
         <v>0.1239243331700712</v>
       </c>
       <c r="AI58">
+        <v>0.70843058355824</v>
+      </c>
+      <c r="AJ58">
         <v>1983</v>
       </c>
-      <c r="AJ58">
-        <v>0</v>
-      </c>
       <c r="AK58">
         <v>0</v>
       </c>
       <c r="AL58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58">
+        <v>1</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
         <v>85000</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -7633,24 +7987,30 @@
         <v>0.1239243331700712</v>
       </c>
       <c r="AI59">
+        <v>0.70843058355824</v>
+      </c>
+      <c r="AJ59">
         <v>1983</v>
       </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
       <c r="AK59">
         <v>0</v>
       </c>
       <c r="AL59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59">
+        <v>1</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
         <v>60000</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -7749,24 +8109,30 @@
         <v>0.1239243331700712</v>
       </c>
       <c r="AI60">
+        <v>0.70843058355824</v>
+      </c>
+      <c r="AJ60">
         <v>1983</v>
       </c>
-      <c r="AJ60">
-        <v>0</v>
-      </c>
       <c r="AK60">
         <v>0</v>
       </c>
       <c r="AL60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60">
+        <v>1</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
         <v>57500</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7865,24 +8231,30 @@
         <v>0.1239243331700712</v>
       </c>
       <c r="AI61">
+        <v>0.70843058355824</v>
+      </c>
+      <c r="AJ61">
         <v>1983</v>
       </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
       <c r="AK61">
         <v>0</v>
       </c>
       <c r="AL61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61">
+        <v>1</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
         <v>175000</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7981,24 +8353,30 @@
         <v>0.1010298397503797</v>
       </c>
       <c r="AI62">
+        <v>0.7014145922264511</v>
+      </c>
+      <c r="AJ62">
         <v>1983</v>
       </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
       <c r="AK62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62">
         <v>1</v>
       </c>
       <c r="AM62">
+        <v>1</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
         <v>600000</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -8097,24 +8475,30 @@
         <v>0.1010298397503797</v>
       </c>
       <c r="AI63">
+        <v>0.7014145922264511</v>
+      </c>
+      <c r="AJ63">
         <v>1983</v>
       </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
       <c r="AK63">
         <v>0</v>
       </c>
       <c r="AL63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM63">
+        <v>1</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
         <v>375000</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -8213,24 +8597,30 @@
         <v>0.1010298397503797</v>
       </c>
       <c r="AI64">
+        <v>0.7014145922264511</v>
+      </c>
+      <c r="AJ64">
         <v>1983</v>
       </c>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
       <c r="AK64">
         <v>0</v>
       </c>
       <c r="AL64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM64">
+        <v>1</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
         <v>310000</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -8329,24 +8719,30 @@
         <v>0.1010298397503797</v>
       </c>
       <c r="AI65">
+        <v>0.7014145922264511</v>
+      </c>
+      <c r="AJ65">
         <v>1983</v>
       </c>
-      <c r="AJ65">
-        <v>0</v>
-      </c>
       <c r="AK65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65">
         <v>1</v>
       </c>
       <c r="AM65">
+        <v>1</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
         <v>425000</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8445,24 +8841,30 @@
         <v>0.1010298397503797</v>
       </c>
       <c r="AI66">
+        <v>0.7014145922264511</v>
+      </c>
+      <c r="AJ66">
         <v>1983</v>
       </c>
-      <c r="AJ66">
-        <v>0</v>
-      </c>
       <c r="AK66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66">
         <v>1</v>
       </c>
       <c r="AM66">
+        <v>1</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
         <v>40000</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8561,24 +8963,30 @@
         <v>0.1010298397503797</v>
       </c>
       <c r="AI67">
+        <v>0.7014145922264511</v>
+      </c>
+      <c r="AJ67">
         <v>1983</v>
       </c>
-      <c r="AJ67">
-        <v>0</v>
-      </c>
       <c r="AK67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67">
         <v>1</v>
       </c>
       <c r="AM67">
+        <v>1</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
         <v>140000</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8677,24 +9085,30 @@
         <v>0.1010298397503797</v>
       </c>
       <c r="AI68">
+        <v>0.7014145922264511</v>
+      </c>
+      <c r="AJ68">
         <v>1983</v>
       </c>
-      <c r="AJ68">
-        <v>0</v>
-      </c>
       <c r="AK68">
         <v>0</v>
       </c>
       <c r="AL68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM68">
+        <v>1</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
         <v>175000</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8793,24 +9207,30 @@
         <v>0.1010298397503797</v>
       </c>
       <c r="AI69">
+        <v>0.7014145922264511</v>
+      </c>
+      <c r="AJ69">
         <v>1983</v>
       </c>
-      <c r="AJ69">
-        <v>0</v>
-      </c>
       <c r="AK69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL69">
         <v>1</v>
       </c>
       <c r="AM69">
+        <v>1</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
         <v>160000</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -8909,24 +9329,30 @@
         <v>0.1010298397503797</v>
       </c>
       <c r="AI70">
+        <v>0.7014145922264511</v>
+      </c>
+      <c r="AJ70">
         <v>1983</v>
       </c>
-      <c r="AJ70">
-        <v>0</v>
-      </c>
       <c r="AK70">
         <v>0</v>
       </c>
       <c r="AL70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM70">
+        <v>1</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
         <v>85000</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -9025,24 +9451,30 @@
         <v>0.1010298397503797</v>
       </c>
       <c r="AI71">
+        <v>0.7014145922264511</v>
+      </c>
+      <c r="AJ71">
         <v>1983</v>
       </c>
-      <c r="AJ71">
-        <v>0</v>
-      </c>
       <c r="AK71">
         <v>0</v>
       </c>
       <c r="AL71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM71">
+        <v>1</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
         <v>60000</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:41">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -9141,24 +9573,30 @@
         <v>0.1010298397503797</v>
       </c>
       <c r="AI72">
+        <v>0.7014145922264511</v>
+      </c>
+      <c r="AJ72">
         <v>1983</v>
       </c>
-      <c r="AJ72">
-        <v>0</v>
-      </c>
       <c r="AK72">
         <v>0</v>
       </c>
       <c r="AL72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM72">
+        <v>1</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
         <v>57500</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -9257,24 +9695,30 @@
         <v>0.1010298397503797</v>
       </c>
       <c r="AI73">
+        <v>0.7014145922264511</v>
+      </c>
+      <c r="AJ73">
         <v>1983</v>
       </c>
-      <c r="AJ73">
-        <v>0</v>
-      </c>
       <c r="AK73">
         <v>0</v>
       </c>
       <c r="AL73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM73">
+        <v>1</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
         <v>175000</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:41">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -9331,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="T74">
-        <v>25262</v>
+        <v>269121</v>
       </c>
       <c r="U74">
         <v>16</v>
@@ -9367,30 +9811,36 @@
         <v>10535466</v>
       </c>
       <c r="AG74">
-        <v>3778077</v>
+        <v>4021936</v>
       </c>
       <c r="AH74">
-        <v>0.006686470392212758</v>
+        <v>0.06691329747663811</v>
       </c>
       <c r="AI74">
+        <v>0.7734563652927346</v>
+      </c>
+      <c r="AJ74">
         <v>1983</v>
       </c>
-      <c r="AJ74">
-        <v>0</v>
-      </c>
       <c r="AK74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL74">
         <v>1</v>
       </c>
       <c r="AM74">
+        <v>1</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
         <v>10650</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:41">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -9447,7 +9897,7 @@
         <v>0</v>
       </c>
       <c r="T75">
-        <v>25262</v>
+        <v>269121</v>
       </c>
       <c r="U75">
         <v>16</v>
@@ -9483,30 +9933,36 @@
         <v>6011154</v>
       </c>
       <c r="AG75">
-        <v>3778077</v>
+        <v>4021936</v>
       </c>
       <c r="AH75">
-        <v>0.006686470392212758</v>
+        <v>0.06691329747663811</v>
       </c>
       <c r="AI75">
+        <v>0.7734563652927346</v>
+      </c>
+      <c r="AJ75">
         <v>1983</v>
       </c>
-      <c r="AJ75">
-        <v>0</v>
-      </c>
       <c r="AK75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL75">
         <v>1</v>
       </c>
       <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
         <v>21000</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:41">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -9563,7 +10019,7 @@
         <v>0</v>
       </c>
       <c r="T76">
-        <v>25262</v>
+        <v>269121</v>
       </c>
       <c r="U76">
         <v>16</v>
@@ -9599,30 +10055,36 @@
         <v>0</v>
       </c>
       <c r="AG76">
-        <v>3778077</v>
+        <v>4021936</v>
       </c>
       <c r="AH76">
-        <v>0.006686470392212758</v>
+        <v>0.06691329747663811</v>
       </c>
       <c r="AI76">
+        <v>0.7734563652927346</v>
+      </c>
+      <c r="AJ76">
         <v>1983</v>
       </c>
-      <c r="AJ76">
-        <v>0</v>
-      </c>
       <c r="AK76">
         <v>0</v>
       </c>
       <c r="AL76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
         <v>24231.5</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:41">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -9679,7 +10141,7 @@
         <v>0</v>
       </c>
       <c r="T77">
-        <v>25262</v>
+        <v>269121</v>
       </c>
       <c r="U77">
         <v>16</v>
@@ -9715,30 +10177,36 @@
         <v>6909225</v>
       </c>
       <c r="AG77">
-        <v>3778077</v>
+        <v>4021936</v>
       </c>
       <c r="AH77">
-        <v>0.006686470392212758</v>
+        <v>0.06691329747663811</v>
       </c>
       <c r="AI77">
+        <v>0.7734563652927346</v>
+      </c>
+      <c r="AJ77">
         <v>1983</v>
       </c>
-      <c r="AJ77">
-        <v>0</v>
-      </c>
       <c r="AK77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL77">
         <v>1</v>
       </c>
       <c r="AM77">
+        <v>1</v>
+      </c>
+      <c r="AN77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
         <v>48831</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:41">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -9795,7 +10263,7 @@
         <v>0</v>
       </c>
       <c r="T78">
-        <v>25262</v>
+        <v>269121</v>
       </c>
       <c r="U78">
         <v>16</v>
@@ -9831,30 +10299,36 @@
         <v>0</v>
       </c>
       <c r="AG78">
-        <v>3778077</v>
+        <v>4021936</v>
       </c>
       <c r="AH78">
-        <v>0.006686470392212758</v>
+        <v>0.06691329747663811</v>
       </c>
       <c r="AI78">
+        <v>0.7734563652927346</v>
+      </c>
+      <c r="AJ78">
         <v>1983</v>
       </c>
-      <c r="AJ78">
-        <v>0</v>
-      </c>
       <c r="AK78">
         <v>0</v>
       </c>
       <c r="AL78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
         <v>95000</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:41">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -9911,7 +10385,7 @@
         <v>0</v>
       </c>
       <c r="T79">
-        <v>25262</v>
+        <v>269121</v>
       </c>
       <c r="U79">
         <v>16</v>
@@ -9947,30 +10421,36 @@
         <v>5000000</v>
       </c>
       <c r="AG79">
-        <v>3778077</v>
+        <v>4021936</v>
       </c>
       <c r="AH79">
-        <v>0.006686470392212758</v>
+        <v>0.06691329747663811</v>
       </c>
       <c r="AI79">
+        <v>0.7734563652927346</v>
+      </c>
+      <c r="AJ79">
         <v>1983</v>
       </c>
-      <c r="AJ79">
-        <v>0</v>
-      </c>
       <c r="AK79">
         <v>0</v>
       </c>
       <c r="AL79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
         <v>22500</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -10027,7 +10507,7 @@
         <v>0</v>
       </c>
       <c r="T80">
-        <v>25262</v>
+        <v>269121</v>
       </c>
       <c r="U80">
         <v>16</v>
@@ -10063,30 +10543,36 @@
         <v>5872715</v>
       </c>
       <c r="AG80">
-        <v>3778077</v>
+        <v>4021936</v>
       </c>
       <c r="AH80">
-        <v>0.006686470392212758</v>
+        <v>0.06691329747663811</v>
       </c>
       <c r="AI80">
+        <v>0.7734563652927346</v>
+      </c>
+      <c r="AJ80">
         <v>1983</v>
       </c>
-      <c r="AJ80">
-        <v>0</v>
-      </c>
       <c r="AK80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL80">
         <v>1</v>
       </c>
       <c r="AM80">
+        <v>1</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
         <v>132248</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -10143,7 +10629,7 @@
         <v>0</v>
       </c>
       <c r="T81">
-        <v>25262</v>
+        <v>269121</v>
       </c>
       <c r="U81">
         <v>16</v>
@@ -10179,30 +10665,36 @@
         <v>6883888.333333333</v>
       </c>
       <c r="AG81">
-        <v>3778077</v>
+        <v>4021936</v>
       </c>
       <c r="AH81">
-        <v>0.006686470392212758</v>
+        <v>0.06691329747663811</v>
       </c>
       <c r="AI81">
+        <v>0.7734563652927346</v>
+      </c>
+      <c r="AJ81">
         <v>1983</v>
       </c>
-      <c r="AJ81">
-        <v>0</v>
-      </c>
       <c r="AK81">
         <v>0</v>
       </c>
       <c r="AL81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
         <v>35755</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -10259,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="T82">
-        <v>25262</v>
+        <v>269121</v>
       </c>
       <c r="U82">
         <v>16</v>
@@ -10295,30 +10787,36 @@
         <v>5885000</v>
       </c>
       <c r="AG82">
-        <v>3778077</v>
+        <v>4021936</v>
       </c>
       <c r="AH82">
-        <v>0.006686470392212758</v>
+        <v>0.06691329747663811</v>
       </c>
       <c r="AI82">
+        <v>0.7734563652927346</v>
+      </c>
+      <c r="AJ82">
         <v>1983</v>
       </c>
-      <c r="AJ82">
-        <v>0</v>
-      </c>
       <c r="AK82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL82">
         <v>1</v>
       </c>
       <c r="AM82">
+        <v>1</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
         <v>172436</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -10375,7 +10873,7 @@
         <v>0</v>
       </c>
       <c r="T83">
-        <v>25262</v>
+        <v>269121</v>
       </c>
       <c r="U83">
         <v>16</v>
@@ -10411,30 +10909,36 @@
         <v>8167890</v>
       </c>
       <c r="AG83">
-        <v>3778077</v>
+        <v>4021936</v>
       </c>
       <c r="AH83">
-        <v>0.006686470392212758</v>
+        <v>0.06691329747663811</v>
       </c>
       <c r="AI83">
+        <v>0.7734563652927346</v>
+      </c>
+      <c r="AJ83">
         <v>1983</v>
       </c>
-      <c r="AJ83">
-        <v>0</v>
-      </c>
       <c r="AK83">
         <v>0</v>
       </c>
       <c r="AL83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM83">
+        <v>1</v>
+      </c>
+      <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
         <v>222439.5</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -10491,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="T84">
-        <v>25262</v>
+        <v>269121</v>
       </c>
       <c r="U84">
         <v>16</v>
@@ -10527,30 +11031,36 @@
         <v>5988850</v>
       </c>
       <c r="AG84">
-        <v>3778077</v>
+        <v>4021936</v>
       </c>
       <c r="AH84">
-        <v>0.006686470392212758</v>
+        <v>0.06691329747663811</v>
       </c>
       <c r="AI84">
+        <v>0.7734563652927346</v>
+      </c>
+      <c r="AJ84">
         <v>1983</v>
       </c>
-      <c r="AJ84">
-        <v>0</v>
-      </c>
       <c r="AK84">
         <v>0</v>
       </c>
       <c r="AL84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
         <v>32600</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -10607,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="T85">
-        <v>25262</v>
+        <v>269121</v>
       </c>
       <c r="U85">
         <v>16</v>
@@ -10643,30 +11153,36 @@
         <v>0</v>
       </c>
       <c r="AG85">
-        <v>3778077</v>
+        <v>4021936</v>
       </c>
       <c r="AH85">
-        <v>0.006686470392212758</v>
+        <v>0.06691329747663811</v>
       </c>
       <c r="AI85">
+        <v>0.7734563652927346</v>
+      </c>
+      <c r="AJ85">
         <v>1983</v>
       </c>
-      <c r="AJ85">
-        <v>0</v>
-      </c>
       <c r="AK85">
         <v>0</v>
       </c>
       <c r="AL85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM85">
+        <v>1</v>
+      </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
         <v>83723</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -10723,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="T86">
-        <v>25262</v>
+        <v>269121</v>
       </c>
       <c r="U86">
         <v>16</v>
@@ -10759,30 +11275,36 @@
         <v>0</v>
       </c>
       <c r="AG86">
-        <v>3778077</v>
+        <v>4021936</v>
       </c>
       <c r="AH86">
-        <v>0.006686470392212758</v>
+        <v>0.06691329747663811</v>
       </c>
       <c r="AI86">
+        <v>0.7734563652927346</v>
+      </c>
+      <c r="AJ86">
         <v>1983</v>
       </c>
-      <c r="AJ86">
-        <v>0</v>
-      </c>
       <c r="AK86">
         <v>0</v>
       </c>
       <c r="AL86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM86">
+        <v>1</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
         <v>294229</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:41">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10881,24 +11403,30 @@
         <v>0.403453418224388</v>
       </c>
       <c r="AI87">
+        <v>0.2218747197698458</v>
+      </c>
+      <c r="AJ87">
         <v>1983</v>
       </c>
-      <c r="AJ87">
-        <v>0</v>
-      </c>
       <c r="AK87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL87">
         <v>1</v>
       </c>
       <c r="AM87">
+        <v>1</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
         <v>10650</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10997,24 +11525,30 @@
         <v>0.403453418224388</v>
       </c>
       <c r="AI88">
+        <v>0.2218747197698458</v>
+      </c>
+      <c r="AJ88">
         <v>1983</v>
       </c>
-      <c r="AJ88">
-        <v>0</v>
-      </c>
       <c r="AK88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL88">
         <v>1</v>
       </c>
       <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
         <v>21000</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:41">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -11113,24 +11647,30 @@
         <v>0.403453418224388</v>
       </c>
       <c r="AI89">
+        <v>0.2218747197698458</v>
+      </c>
+      <c r="AJ89">
         <v>1983</v>
       </c>
-      <c r="AJ89">
-        <v>0</v>
-      </c>
       <c r="AK89">
         <v>0</v>
       </c>
       <c r="AL89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
         <v>24231.5</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:41">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -11229,24 +11769,30 @@
         <v>0.403453418224388</v>
       </c>
       <c r="AI90">
+        <v>0.2218747197698458</v>
+      </c>
+      <c r="AJ90">
         <v>1983</v>
       </c>
-      <c r="AJ90">
-        <v>0</v>
-      </c>
       <c r="AK90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL90">
         <v>1</v>
       </c>
       <c r="AM90">
+        <v>1</v>
+      </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
+      <c r="AO90">
         <v>48831</v>
       </c>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="1:41">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -11345,24 +11891,30 @@
         <v>0.403453418224388</v>
       </c>
       <c r="AI91">
+        <v>0.2218747197698458</v>
+      </c>
+      <c r="AJ91">
         <v>1983</v>
       </c>
-      <c r="AJ91">
-        <v>0</v>
-      </c>
       <c r="AK91">
         <v>0</v>
       </c>
       <c r="AL91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM91">
+        <v>0</v>
+      </c>
+      <c r="AN91">
+        <v>1</v>
+      </c>
+      <c r="AO91">
         <v>95000</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:41">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -11461,24 +12013,30 @@
         <v>0.403453418224388</v>
       </c>
       <c r="AI92">
+        <v>0.2218747197698458</v>
+      </c>
+      <c r="AJ92">
         <v>1983</v>
       </c>
-      <c r="AJ92">
-        <v>0</v>
-      </c>
       <c r="AK92">
         <v>0</v>
       </c>
       <c r="AL92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM92">
+        <v>0</v>
+      </c>
+      <c r="AN92">
+        <v>1</v>
+      </c>
+      <c r="AO92">
         <v>22500</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:41">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -11577,24 +12135,30 @@
         <v>0.403453418224388</v>
       </c>
       <c r="AI93">
+        <v>0.2218747197698458</v>
+      </c>
+      <c r="AJ93">
         <v>1983</v>
       </c>
-      <c r="AJ93">
-        <v>0</v>
-      </c>
       <c r="AK93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL93">
         <v>1</v>
       </c>
       <c r="AM93">
+        <v>1</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
         <v>132248</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" spans="1:41">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -11693,24 +12257,30 @@
         <v>0.403453418224388</v>
       </c>
       <c r="AI94">
+        <v>0.2218747197698458</v>
+      </c>
+      <c r="AJ94">
         <v>1983</v>
       </c>
-      <c r="AJ94">
-        <v>0</v>
-      </c>
       <c r="AK94">
         <v>0</v>
       </c>
       <c r="AL94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM94">
+        <v>0</v>
+      </c>
+      <c r="AN94">
+        <v>1</v>
+      </c>
+      <c r="AO94">
         <v>35755</v>
       </c>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="1:41">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -11809,24 +12379,30 @@
         <v>0.403453418224388</v>
       </c>
       <c r="AI95">
+        <v>0.2218747197698458</v>
+      </c>
+      <c r="AJ95">
         <v>1983</v>
       </c>
-      <c r="AJ95">
-        <v>0</v>
-      </c>
       <c r="AK95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL95">
         <v>1</v>
       </c>
       <c r="AM95">
+        <v>1</v>
+      </c>
+      <c r="AN95">
+        <v>1</v>
+      </c>
+      <c r="AO95">
         <v>172436</v>
       </c>
     </row>
-    <row r="96" spans="1:39">
+    <row r="96" spans="1:41">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -11925,24 +12501,30 @@
         <v>0.403453418224388</v>
       </c>
       <c r="AI96">
+        <v>0.2218747197698458</v>
+      </c>
+      <c r="AJ96">
         <v>1983</v>
       </c>
-      <c r="AJ96">
-        <v>0</v>
-      </c>
       <c r="AK96">
         <v>0</v>
       </c>
       <c r="AL96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM96">
+        <v>1</v>
+      </c>
+      <c r="AN96">
+        <v>1</v>
+      </c>
+      <c r="AO96">
         <v>222439.5</v>
       </c>
     </row>
-    <row r="97" spans="1:39">
+    <row r="97" spans="1:41">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -12041,24 +12623,30 @@
         <v>0.403453418224388</v>
       </c>
       <c r="AI97">
+        <v>0.2218747197698458</v>
+      </c>
+      <c r="AJ97">
         <v>1983</v>
       </c>
-      <c r="AJ97">
-        <v>0</v>
-      </c>
       <c r="AK97">
         <v>0</v>
       </c>
       <c r="AL97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM97">
+        <v>0</v>
+      </c>
+      <c r="AN97">
+        <v>1</v>
+      </c>
+      <c r="AO97">
         <v>32600</v>
       </c>
     </row>
-    <row r="98" spans="1:39">
+    <row r="98" spans="1:41">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -12157,24 +12745,30 @@
         <v>0.403453418224388</v>
       </c>
       <c r="AI98">
+        <v>0.2218747197698458</v>
+      </c>
+      <c r="AJ98">
         <v>1983</v>
       </c>
-      <c r="AJ98">
-        <v>0</v>
-      </c>
       <c r="AK98">
         <v>0</v>
       </c>
       <c r="AL98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM98">
+        <v>1</v>
+      </c>
+      <c r="AN98">
+        <v>1</v>
+      </c>
+      <c r="AO98">
         <v>83723</v>
       </c>
     </row>
-    <row r="99" spans="1:39">
+    <row r="99" spans="1:41">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -12273,24 +12867,30 @@
         <v>0.403453418224388</v>
       </c>
       <c r="AI99">
+        <v>0.2218747197698458</v>
+      </c>
+      <c r="AJ99">
         <v>1983</v>
       </c>
-      <c r="AJ99">
-        <v>0</v>
-      </c>
       <c r="AK99">
         <v>0</v>
       </c>
       <c r="AL99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM99">
+        <v>1</v>
+      </c>
+      <c r="AN99">
+        <v>1</v>
+      </c>
+      <c r="AO99">
         <v>294229</v>
       </c>
     </row>
-    <row r="100" spans="1:39">
+    <row r="100" spans="1:41">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -12389,24 +12989,30 @@
         <v>0.5202033002948121</v>
       </c>
       <c r="AI100">
+        <v>0.1055259988867235</v>
+      </c>
+      <c r="AJ100">
         <v>1983</v>
       </c>
-      <c r="AJ100">
-        <v>0</v>
-      </c>
       <c r="AK100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL100">
         <v>1</v>
       </c>
       <c r="AM100">
+        <v>1</v>
+      </c>
+      <c r="AN100">
+        <v>1</v>
+      </c>
+      <c r="AO100">
         <v>60000</v>
       </c>
     </row>
-    <row r="101" spans="1:39">
+    <row r="101" spans="1:41">
       <c r="A101" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -12505,24 +13111,30 @@
         <v>0.5202033002948121</v>
       </c>
       <c r="AI101">
+        <v>0.1055259988867235</v>
+      </c>
+      <c r="AJ101">
         <v>1983</v>
       </c>
-      <c r="AJ101">
-        <v>0</v>
-      </c>
       <c r="AK101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL101">
         <v>1</v>
       </c>
       <c r="AM101">
+        <v>1</v>
+      </c>
+      <c r="AN101">
+        <v>1</v>
+      </c>
+      <c r="AO101">
         <v>113000</v>
       </c>
     </row>
-    <row r="102" spans="1:39">
+    <row r="102" spans="1:41">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -12621,24 +13233,30 @@
         <v>0.5202033002948121</v>
       </c>
       <c r="AI102">
+        <v>0.1055259988867235</v>
+      </c>
+      <c r="AJ102">
         <v>1983</v>
       </c>
-      <c r="AJ102">
-        <v>0</v>
-      </c>
       <c r="AK102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL102">
         <v>1</v>
       </c>
       <c r="AM102">
+        <v>1</v>
+      </c>
+      <c r="AN102">
+        <v>1</v>
+      </c>
+      <c r="AO102">
         <v>190000</v>
       </c>
     </row>
-    <row r="103" spans="1:39">
+    <row r="103" spans="1:41">
       <c r="A103" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -12737,24 +13355,30 @@
         <v>0.5202033002948121</v>
       </c>
       <c r="AI103">
+        <v>0.1055259988867235</v>
+      </c>
+      <c r="AJ103">
         <v>1983</v>
       </c>
-      <c r="AJ103">
-        <v>0</v>
-      </c>
       <c r="AK103">
         <v>0</v>
       </c>
       <c r="AL103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM103">
+        <v>0</v>
+      </c>
+      <c r="AN103">
+        <v>1</v>
+      </c>
+      <c r="AO103">
         <v>81000</v>
       </c>
     </row>
-    <row r="104" spans="1:39">
+    <row r="104" spans="1:41">
       <c r="A104" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -12853,24 +13477,30 @@
         <v>0.5202033002948121</v>
       </c>
       <c r="AI104">
+        <v>0.1055259988867235</v>
+      </c>
+      <c r="AJ104">
         <v>1983</v>
       </c>
-      <c r="AJ104">
-        <v>0</v>
-      </c>
       <c r="AK104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL104">
         <v>1</v>
       </c>
       <c r="AM104">
+        <v>1</v>
+      </c>
+      <c r="AN104">
+        <v>1</v>
+      </c>
+      <c r="AO104">
         <v>215000</v>
       </c>
     </row>
-    <row r="105" spans="1:39">
+    <row r="105" spans="1:41">
       <c r="A105" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -12969,24 +13599,30 @@
         <v>0.5202033002948121</v>
       </c>
       <c r="AI105">
+        <v>0.1055259988867235</v>
+      </c>
+      <c r="AJ105">
         <v>1983</v>
       </c>
-      <c r="AJ105">
-        <v>0</v>
-      </c>
       <c r="AK105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL105">
         <v>1</v>
       </c>
       <c r="AM105">
+        <v>1</v>
+      </c>
+      <c r="AN105">
+        <v>1</v>
+      </c>
+      <c r="AO105">
         <v>121000</v>
       </c>
     </row>
-    <row r="106" spans="1:39">
+    <row r="106" spans="1:41">
       <c r="A106" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -13085,24 +13721,30 @@
         <v>0.5202033002948121</v>
       </c>
       <c r="AI106">
+        <v>0.1055259988867235</v>
+      </c>
+      <c r="AJ106">
         <v>1983</v>
       </c>
-      <c r="AJ106">
-        <v>0</v>
-      </c>
       <c r="AK106">
         <v>0</v>
       </c>
       <c r="AL106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM106">
+        <v>1</v>
+      </c>
+      <c r="AN106">
+        <v>1</v>
+      </c>
+      <c r="AO106">
         <v>700000</v>
       </c>
     </row>
-    <row r="107" spans="1:39">
+    <row r="107" spans="1:41">
       <c r="A107" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -13201,24 +13843,30 @@
         <v>0.5202033002948121</v>
       </c>
       <c r="AI107">
+        <v>0.1055259988867235</v>
+      </c>
+      <c r="AJ107">
         <v>1983</v>
       </c>
-      <c r="AJ107">
-        <v>0</v>
-      </c>
       <c r="AK107">
         <v>0</v>
       </c>
       <c r="AL107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM107">
+        <v>1</v>
+      </c>
+      <c r="AN107">
+        <v>1</v>
+      </c>
+      <c r="AO107">
         <v>192000</v>
       </c>
     </row>
-    <row r="108" spans="1:39">
+    <row r="108" spans="1:41">
       <c r="A108" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -13317,18 +13965,24 @@
         <v>0.5202033002948121</v>
       </c>
       <c r="AI108">
+        <v>0.1055259988867235</v>
+      </c>
+      <c r="AJ108">
         <v>1983</v>
       </c>
-      <c r="AJ108">
-        <v>0</v>
-      </c>
       <c r="AK108">
         <v>0</v>
       </c>
       <c r="AL108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM108">
+        <v>1</v>
+      </c>
+      <c r="AN108">
+        <v>1</v>
+      </c>
+      <c r="AO108">
         <v>320000</v>
       </c>
     </row>

--- a/output/cideal.xlsx
+++ b/output/cideal.xlsx
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4290</v>
+        <v>4403.873446482281</v>
       </c>
       <c r="D2">
         <v>140000</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2120</v>
+        <v>2565.769164761619</v>
       </c>
       <c r="D3">
         <v>246926</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2880</v>
+        <v>2771.04675450926</v>
       </c>
       <c r="D4">
         <v>229400</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4070</v>
+        <v>4043.14643519898</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2820</v>
+        <v>2934.187009790061</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8820</v>
+        <v>8947.741473873051</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4940</v>
+        <v>5191.140356354663</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7800</v>
+        <v>9502.243585046588</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5130</v>
+        <v>6128.19547247793</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4060</v>
+        <v>4547.50930098406</v>
       </c>
       <c r="D12">
         <v>190000</v>
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3450</v>
+        <v>3972.630273980753</v>
       </c>
       <c r="D13">
         <v>416210</v>
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4480</v>
+        <v>4480.799271301591</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2370</v>
+        <v>2644.817039097506</v>
       </c>
       <c r="D17">
         <v>360230</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2930</v>
+        <v>2839.92516805933</v>
       </c>
       <c r="D18">
         <v>2800000</v>
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4130</v>
+        <v>4141.976353364595</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>580</v>
+        <v>557.6321326261259</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3258,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>690</v>
+        <v>710.2742021758368</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3380,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>350</v>
+        <v>473.2998774917226</v>
       </c>
       <c r="D22">
         <v>254400</v>
@@ -3502,7 +3502,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>1340</v>
+        <v>1280.225469721551</v>
       </c>
       <c r="D23">
         <v>345125</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3746,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>650</v>
+        <v>665.6274194933962</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM25">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>9040</v>
+        <v>9271.398233246389</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>5340</v>
+        <v>5555.389721901988</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM27">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>5610</v>
+        <v>6336.709213679884</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>4390</v>
+        <v>4633.590358399045</v>
       </c>
       <c r="D29">
         <v>190000</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>4070</v>
+        <v>4355.934938677345</v>
       </c>
       <c r="D30">
         <v>3000000</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>1250</v>
+        <v>1317.890706178356</v>
       </c>
       <c r="D31">
         <v>1900000</v>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>4600</v>
+        <v>4524.720276132375</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>2560</v>
+        <v>2635.191563620458</v>
       </c>
       <c r="D33">
         <v>420885</v>
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>3000</v>
+        <v>2948.84548976845</v>
       </c>
       <c r="D34">
         <v>2800000</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>3990</v>
+        <v>4022.237688257</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5088,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>640</v>
+        <v>587.1403830380606</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5210,7 +5210,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>730</v>
+        <v>711.1128122770988</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5332,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>1240</v>
+        <v>1629.435089125503</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5454,7 +5454,7 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>360</v>
+        <v>466.0709276378625</v>
       </c>
       <c r="D39">
         <v>254400</v>
@@ -5576,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>1310</v>
+        <v>1263.452411343738</v>
       </c>
       <c r="D40">
         <v>345125</v>
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>710</v>
+        <v>691.8942672110555</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5922,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM42">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>9310</v>
+        <v>9477.887185090232</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6064,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>5540</v>
+        <v>5660.517066940175</v>
       </c>
       <c r="D44">
         <v>259980</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="AL44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM44">
         <v>1</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>10710</v>
+        <v>10883.31535948899</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6308,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>6320</v>
+        <v>6711.616186806423</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6430,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>4870</v>
+        <v>4921.848409120176</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>4480</v>
+        <v>4479.398934239905</v>
       </c>
       <c r="D48">
         <v>3000000</v>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>1370</v>
+        <v>1385.890384668919</v>
       </c>
       <c r="D49">
         <v>1900000</v>
@@ -6796,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>4760</v>
+        <v>4394.543881413723</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>1540</v>
+        <v>1443.492614888721</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -7040,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>4100</v>
+        <v>4142.494431377753</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>2980</v>
+        <v>2995.45235738661</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7284,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>5390</v>
+        <v>5122.180090208862</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7406,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>3100</v>
+        <v>2999.422762626143</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>2840</v>
+        <v>2634.85005236495</v>
       </c>
       <c r="D56">
         <v>420885</v>
@@ -7650,7 +7650,7 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>11890</v>
+        <v>10649.8372874572</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>380</v>
+        <v>495.763971160512</v>
       </c>
       <c r="D58">
         <v>335640</v>
@@ -7894,7 +7894,7 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>630</v>
+        <v>561.9866500362131</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <v>760</v>
+        <v>701.4459636783288</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="AL60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM60">
         <v>1</v>
@@ -8138,7 +8138,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>5790</v>
+        <v>5745.422744292303</v>
       </c>
       <c r="D61">
         <v>328191</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="AL61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM61">
         <v>1</v>
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>5510</v>
+        <v>4699.493713911862</v>
       </c>
       <c r="D62">
         <v>350000</v>
@@ -8382,7 +8382,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>1720</v>
+        <v>1505.810948829135</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8504,7 +8504,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>4160</v>
+        <v>4220.389835426517</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -8626,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>3090</v>
+        <v>3087.12349650562</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>5810</v>
+        <v>5295.682695961288</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -8870,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>3320</v>
+        <v>3056.152683606517</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>3030</v>
+        <v>2632.058233068435</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -9114,7 +9114,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>12870</v>
+        <v>10784.63069920566</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -9236,7 +9236,7 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>400</v>
+        <v>503.3023574516347</v>
       </c>
       <c r="D70">
         <v>335640</v>
@@ -9358,7 +9358,7 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>640</v>
+        <v>565.0479699255185</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>800</v>
+        <v>720.7128711178943</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -9582,7 +9582,7 @@
         <v>0</v>
       </c>
       <c r="AL72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM72">
         <v>1</v>
@@ -9602,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>6020</v>
+        <v>5955.175904294275</v>
       </c>
       <c r="D73">
         <v>328191</v>
@@ -9704,7 +9704,7 @@
         <v>0</v>
       </c>
       <c r="AL73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM73">
         <v>1</v>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>8190</v>
+        <v>7449.08671983612</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -9846,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>6110</v>
+        <v>5412.131646018807</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>3230</v>
+        <v>2648.294169302945</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -10090,7 +10090,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>3460</v>
+        <v>3137.260298393558</v>
       </c>
       <c r="D77">
         <v>300000</v>
@@ -10212,7 +10212,7 @@
         <v>1</v>
       </c>
       <c r="C78">
-        <v>640</v>
+        <v>555.6050487299622</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -10334,7 +10334,7 @@
         <v>1</v>
       </c>
       <c r="C79">
-        <v>830</v>
+        <v>730.3063521039821</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="AL79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM79">
         <v>0</v>
@@ -10456,7 +10456,7 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>3060</v>
+        <v>3125.07948072635</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -10578,7 +10578,7 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>410</v>
+        <v>515.8271637832048</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -10700,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>5780</v>
+        <v>4861.287098802361</v>
       </c>
       <c r="D82">
         <v>350000</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>6310</v>
+        <v>6301.696269820412</v>
       </c>
       <c r="D83">
         <v>2500000</v>
@@ -10924,7 +10924,7 @@
         <v>0</v>
       </c>
       <c r="AL83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM83">
         <v>1</v>
@@ -10944,7 +10944,7 @@
         <v>1</v>
       </c>
       <c r="C84">
-        <v>1380</v>
+        <v>1338.716747746975</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>4160</v>
+        <v>4302.486544228166</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>1880</v>
+        <v>1579.189101937001</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -11310,7 +11310,7 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>7330</v>
+        <v>7580.275568826287</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -11432,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>5970</v>
+        <v>5330.539154475424</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -11554,7 +11554,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>3360</v>
+        <v>2703.742092148914</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -11676,7 +11676,7 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>3620</v>
+        <v>3210.869677115934</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -11798,7 +11798,7 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>640</v>
+        <v>574.4917005765921</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -11920,7 +11920,7 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>810</v>
+        <v>729.1196658666737</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -12022,7 +12022,7 @@
         <v>0</v>
       </c>
       <c r="AL92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM92">
         <v>0</v>
@@ -12042,7 +12042,7 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>3020</v>
+        <v>3222.05417836739</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -12164,7 +12164,7 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>390</v>
+        <v>517.8609592583078</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -12286,7 +12286,7 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>5620</v>
+        <v>4944.191641077407</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <v>6480</v>
+        <v>6661.86504232374</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -12510,7 +12510,7 @@
         <v>0</v>
       </c>
       <c r="AL96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM96">
         <v>1</v>
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>1320</v>
+        <v>1384.519227335143</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -12652,7 +12652,7 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>3970</v>
+        <v>4308.415595998206</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -12774,7 +12774,7 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>1970</v>
+        <v>1667.171891046301</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -12896,7 +12896,7 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <v>6460</v>
+        <v>7633.969039669125</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -13018,7 +13018,7 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <v>5810</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -13140,7 +13140,7 @@
         <v>0</v>
       </c>
       <c r="C102">
-        <v>3800</v>
+        <v>3242.636921959078</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -13262,7 +13262,7 @@
         <v>1</v>
       </c>
       <c r="C103">
-        <v>650</v>
+        <v>594.9783586927158</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -13384,7 +13384,7 @@
         <v>0</v>
       </c>
       <c r="C104">
-        <v>2890</v>
+        <v>3212.81539531051</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -13506,7 +13506,7 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>5390</v>
+        <v>5089.61202008711</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -13628,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>6640</v>
+        <v>7026.178156858586</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -13730,7 +13730,7 @@
         <v>0</v>
       </c>
       <c r="AL106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM106">
         <v>1</v>
@@ -13750,7 +13750,7 @@
         <v>1</v>
       </c>
       <c r="C107">
-        <v>1270</v>
+        <v>1431.756130822538</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -13872,7 +13872,7 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>3760</v>
+        <v>4310.567450080138</v>
       </c>
       <c r="D108">
         <v>0</v>

--- a/output/cideal.xlsx
+++ b/output/cideal.xlsx
@@ -943,7 +943,7 @@
         <v>4403.873446482281</v>
       </c>
       <c r="D2">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>214340</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2235.045836135583</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -4237,7 +4237,7 @@
         <v>4633.590358399045</v>
       </c>
       <c r="D29">
-        <v>190000</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>769300</v>
@@ -4847,7 +4847,7 @@
         <v>2948.84548976845</v>
       </c>
       <c r="D34">
-        <v>2800000</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>495000</v>
@@ -5457,7 +5457,7 @@
         <v>466.0709276378625</v>
       </c>
       <c r="D39">
-        <v>254400</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>215000</v>
@@ -5579,7 +5579,7 @@
         <v>1263.452411343738</v>
       </c>
       <c r="D40">
-        <v>345125</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>395000</v>
@@ -6555,7 +6555,7 @@
         <v>4479.398934239905</v>
       </c>
       <c r="D48">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>528000</v>
@@ -6677,7 +6677,7 @@
         <v>1385.890384668919</v>
       </c>
       <c r="D49">
-        <v>1900000</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>65000</v>
@@ -7531,7 +7531,7 @@
         <v>2634.85005236495</v>
       </c>
       <c r="D56">
-        <v>420885</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>305000</v>
@@ -8266,7 +8266,7 @@
         <v>350000</v>
       </c>
       <c r="E62">
-        <v>600000</v>
+        <v>548000</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -8388,7 +8388,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>375000</v>
+        <v>198500</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -8510,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>310000</v>
+        <v>260000</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -8632,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>425000</v>
+        <v>530000</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -8754,7 +8754,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>40000</v>
+        <v>362000</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -8876,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>140000</v>
+        <v>240000</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -8998,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>175000</v>
+        <v>305000</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -9120,7 +9120,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>160000</v>
+        <v>328000</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>503.3023574516347</v>
       </c>
       <c r="D70">
-        <v>335640</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>85000</v>
+        <v>248000</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -9364,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>60000</v>
+        <v>115200</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>57500</v>
+        <v>280000</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -9605,10 +9605,10 @@
         <v>5955.175904294275</v>
       </c>
       <c r="D73">
-        <v>328191</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>175000</v>
+        <v>310000</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -10703,7 +10703,7 @@
         <v>4861.287098802361</v>
       </c>
       <c r="D82">
-        <v>350000</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>600000</v>
@@ -11316,7 +11316,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>10650</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -11438,7 +11438,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>21000</v>
+        <v>40000</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -11560,7 +11560,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>24231.5</v>
+        <v>175000</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -11682,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>48831</v>
+        <v>140000</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -11795,7 +11795,7 @@
         <v>130</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91">
         <v>574.4917005765921</v>
@@ -11804,7 +11804,7 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>95000</v>
+        <v>60000</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -11917,7 +11917,7 @@
         <v>131</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92">
         <v>729.1196658666737</v>
@@ -11926,7 +11926,7 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>22500</v>
+        <v>57500</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -12048,7 +12048,7 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>132248</v>
+        <v>425000</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -12161,7 +12161,7 @@
         <v>133</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94">
         <v>517.8609592583078</v>
@@ -12170,7 +12170,7 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>35755</v>
+        <v>85000</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -12292,7 +12292,7 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>172436</v>
+        <v>600000</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -12414,7 +12414,7 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>222439.5</v>
+        <v>175000</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -12527,7 +12527,7 @@
         <v>136</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97">
         <v>1384.519227335143</v>
@@ -12536,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>32600</v>
+        <v>0</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -12658,7 +12658,7 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>83723</v>
+        <v>310000</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -12780,7 +12780,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>294229</v>
+        <v>375000</v>
       </c>
       <c r="F99">
         <v>0</v>
